--- a/data/trans_media/IQ3005_MoAR-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ3005_MoAR-Edad-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,71; 11,79</t>
+          <t>10,74; 11,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,68; 11,61</t>
+          <t>10,65; 11,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,67; 10,01</t>
+          <t>8,71; 10,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,46; 11,89</t>
+          <t>10,46; 11,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,8; 12,09</t>
+          <t>10,79; 12,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 10,34</t>
+          <t>9,15; 10,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,8; 11,73</t>
+          <t>10,76; 11,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,9; 11,72</t>
+          <t>10,89; 11,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,11; 10,04</t>
+          <t>9,06; 10,01</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,71; 11,79</t>
+          <t>10,74; 11,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,68; 11,61</t>
+          <t>10,65; 11,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,67; 10,01</t>
+          <t>8,71; 10,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,46; 11,89</t>
+          <t>10,46; 11,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,8; 12,09</t>
+          <t>10,79; 12,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,14; 10,34</t>
+          <t>9,15; 10,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,8; 11,73</t>
+          <t>10,76; 11,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,9; 11,72</t>
+          <t>10,89; 11,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,11; 10,04</t>
+          <t>9,06; 10,01</t>
         </is>
       </c>
     </row>
